--- a/Results/3D_Results/3D_Results.xlsx
+++ b/Results/3D_Results/3D_Results.xlsx
@@ -3449,6 +3449,8 @@
   <autoFilter ref="A1:E781">
     <filterColumn colId="0">
       <filters>
+        <filter val="class8_1000"/>
+        <filter val="class8_400"/>
         <filter val="class8_800"/>
       </filters>
     </filterColumn>
@@ -3729,8 +3731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E781"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E737" sqref="E737"/>
+    <sheetView tabSelected="1" topLeftCell="A758" workbookViewId="0">
+      <selection activeCell="D781" sqref="D781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14217,7 +14219,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>826</v>
       </c>
@@ -14231,7 +14233,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>826</v>
       </c>
@@ -14245,7 +14247,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>826</v>
       </c>
@@ -14259,7 +14261,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>826</v>
       </c>
@@ -14273,7 +14275,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>826</v>
       </c>
@@ -14287,7 +14289,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>826</v>
       </c>
@@ -14301,7 +14303,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>826</v>
       </c>
@@ -14315,7 +14317,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>826</v>
       </c>
@@ -14329,7 +14331,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>826</v>
       </c>
@@ -14343,7 +14345,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>826</v>
       </c>
@@ -14357,7 +14359,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>826</v>
       </c>
@@ -14371,7 +14373,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>826</v>
       </c>
@@ -14385,7 +14387,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>826</v>
       </c>
@@ -14399,7 +14401,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>826</v>
       </c>
@@ -14413,7 +14415,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>826</v>
       </c>
@@ -14424,7 +14426,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>826</v>
       </c>
@@ -14435,7 +14437,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>826</v>
       </c>
@@ -14452,7 +14454,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>826</v>
       </c>
@@ -14469,7 +14471,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>826</v>
       </c>
@@ -14486,7 +14488,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>826</v>
       </c>
@@ -14503,7 +14505,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>826</v>
       </c>
@@ -14520,7 +14522,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>826</v>
       </c>
@@ -14537,7 +14539,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>826</v>
       </c>
@@ -14554,7 +14556,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>826</v>
       </c>
@@ -14571,7 +14573,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>826</v>
       </c>
@@ -14588,7 +14590,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>826</v>
       </c>
@@ -14605,7 +14607,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>826</v>
       </c>
@@ -14622,7 +14624,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>826</v>
       </c>
@@ -14639,7 +14641,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>826</v>
       </c>
@@ -14656,7 +14658,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>826</v>
       </c>
@@ -14673,7 +14675,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>826</v>
       </c>
@@ -14690,7 +14692,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>826</v>
       </c>
@@ -15197,7 +15199,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="750" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>911</v>
       </c>
@@ -15211,7 +15213,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="751" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>911</v>
       </c>
@@ -15225,7 +15227,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="752" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>911</v>
       </c>
@@ -15239,7 +15241,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="753" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>911</v>
       </c>
@@ -15253,7 +15255,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>911</v>
       </c>
@@ -15267,7 +15269,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="755" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>911</v>
       </c>
@@ -15281,7 +15283,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>911</v>
       </c>
@@ -15295,7 +15297,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>911</v>
       </c>
@@ -15309,7 +15311,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>911</v>
       </c>
@@ -15323,7 +15325,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="759" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>911</v>
       </c>
@@ -15337,7 +15339,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>911</v>
       </c>
@@ -15351,7 +15353,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>911</v>
       </c>
@@ -15365,7 +15367,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>911</v>
       </c>
@@ -15379,7 +15381,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="763" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>911</v>
       </c>
@@ -15393,7 +15395,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="764" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>911</v>
       </c>
@@ -15404,7 +15406,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="765" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>911</v>
       </c>
@@ -15415,7 +15417,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>911</v>
       </c>
@@ -15432,7 +15434,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="767" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>911</v>
       </c>
@@ -15449,7 +15451,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="768" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>911</v>
       </c>
@@ -15466,7 +15468,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="769" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>911</v>
       </c>
@@ -15483,7 +15485,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>911</v>
       </c>
@@ -15500,7 +15502,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="771" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>911</v>
       </c>
@@ -15517,7 +15519,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>911</v>
       </c>
@@ -15534,7 +15536,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>911</v>
       </c>
@@ -15551,7 +15553,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="774" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>911</v>
       </c>
@@ -15568,7 +15570,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="775" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>911</v>
       </c>
@@ -15585,7 +15587,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>911</v>
       </c>
@@ -15602,7 +15604,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="777" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>911</v>
       </c>
@@ -15619,7 +15621,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="778" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>911</v>
       </c>
@@ -15636,7 +15638,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="779" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>911</v>
       </c>
@@ -15653,7 +15655,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="780" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>911</v>
       </c>
@@ -15670,7 +15672,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="781" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>911</v>
       </c>
